--- a/DemoSSs/ProductTestImport.xlsx
+++ b/DemoSSs/ProductTestImport.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Artist ID</t>
   </si>
@@ -404,10 +404,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,38 +558,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>85</v>
-      </c>
-      <c r="B9">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2">
-        <v>25630</v>
-      </c>
-      <c r="E9">
-        <v>5.99</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2">
-        <v>25630</v>
-      </c>
-      <c r="E10">
-        <v>5.99</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -599,6 +572,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -611,6 +585,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
